--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="149">
   <si>
     <t>Query</t>
   </si>
@@ -441,6 +441,27 @@
   </si>
   <si>
     <t>postgraduate department of computer science  \n', 'm.sc. degree programme in computer science  \n', 'outcome based education – choice based credit system  \n', '     \n', 'rules and regulations, scheme of programme and examinations and syllabi governing \n', 'the m.sc. degree programme in computer science  \n', '(for those admitted in june 2023 ) \n', 'i. vision  \n', 'to produce industry savvy dynamic professionals with ambitions tow ards innovation for \n', 'global development.  \n', 'ii. mission  \n', '\uf0b7 to prepare students to function professionally as computer scientists and w engineers  \n', '\uf0b7 to inculcate skills of programming  \n', '\uf0b7 to develop critical thinking and problem solving skills  \n', '\uf0b7 to create aptitude to assume responsible positions in society  \n', '\uf0b7 to imbibe strong wills to lead the nation in the progressive path in it arena  \n', '\uf0b7 to sow the seeds of entrepreneurial skills  \n', '\uf0b7 to add revenues to the treasury of the nation.  \n', ' programme specific outcomes (psos)  \n', 'on successful completion of m.sc. computer science programme, the students would have  \n', 'pso 1:  understood the concepts and ideas involved in computing.  \n', ' \n', 'pso 2 : gathered business requirements for any problem and share the  principles of its estimation.  \n', ' \n', 'pso 3:  gained  knowledge in computer techniques to solve real world problems.  \n', ' \n', 'pso 4:  acquired knowledge to implement new algorithm.  \n', ' \n', 'pso 5:  acquired knowledge to interpret the data and develop real time applications.  \n', ' \n', 'pso 6 : collaborated with team members and come out with new ideas for software development.  \n', ' \n', 'pso 7 : gained confidence to appear for competitive examinations like csir/ugc -net, set, \n', 'gate etc.  \n', '</t>
+  </si>
+  <si>
+    <t>anjac community radio</t>
+  </si>
+  <si>
+    <t>all hub</t>
+  </si>
+  <si>
+    <t>clubs in this college</t>
+  </si>
+  <si>
+    <t xml:space="preserve">association in this college </t>
+  </si>
+  <si>
+    <t>college management committee</t>
+  </si>
+  <si>
+    <t>college council</t>
+  </si>
+  <si>
+    <t>anjac sms</t>
   </si>
 </sst>
 </file>
@@ -800,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="N102" sqref="N102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2521,6 +2542,166 @@
         <v>4</v>
       </c>
     </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="153">
   <si>
     <t>Query</t>
   </si>
@@ -462,6 +462,18 @@
   </si>
   <si>
     <t>anjac sms</t>
+  </si>
+  <si>
+    <t>anjac nexo</t>
+  </si>
+  <si>
+    <t>anjac ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tell about your self </t>
+  </si>
+  <si>
+    <t>tell about the anjac ai</t>
   </si>
 </sst>
 </file>
@@ -821,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="N102" sqref="N102"/>
+      <selection activeCell="R84" sqref="R84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2702,6 +2714,86 @@
         <v>1</v>
       </c>
     </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>149</v>
+      </c>
+      <c r="B93" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>150</v>
+      </c>
+      <c r="B94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>151</v>
+      </c>
+      <c r="B95" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>152</v>
+      </c>
+      <c r="B96" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
